--- a/cypress/results/Cypress result - All Chrome.xlsx
+++ b/cypress/results/Cypress result - All Chrome.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_3C3C1569599CAB60D566ADA63544F4AD00B46A2B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CF3369D-9626-451D-85AC-882AFE56EDD9}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_3C3C1569599CAB60D566ADA63544F4AD00B46A2B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3665EFAA-34E2-4D46-941B-C1D59D7EB057}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,11 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D3" sqref="D2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -608,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -631,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -654,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -677,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -700,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -723,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -746,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -769,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -792,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -815,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -838,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -861,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -884,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -907,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -930,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -953,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -979,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -990,7 +989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +1017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1342,16 +1341,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H38" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="landingPage_quote.csv"/>
-        <filter val="personalAuto_quote.csv"/>
-        <filter val="personalInsurance_quote.csv"/>
-        <filter val="quoteRetrieval"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H38" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
